--- a/assest/20240624-科大物联-上汽大众协议表(2).xlsx
+++ b/assest/20240624-科大物联-上汽大众协议表(2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12480" windowHeight="8507" tabRatio="780"/>
+    <workbookView windowWidth="12155" windowHeight="9060" tabRatio="780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本修订" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="372">
   <si>
     <t>同行者语音-车机项目需求接口协议</t>
   </si>
@@ -73,6 +73,13 @@
   </si>
   <si>
     <t>1.添加免唤醒词中的媒体控制协议（下一首，上一首，播放，暂停）</t>
+  </si>
+  <si>
+    <t>v1.0.3</t>
+  </si>
+  <si>
+    <t>1. 添加协议反馈协议key_type为3000，aaction对应部分同行者发送表格中的action值
+2. 删除所有同行者接收表格中接收车机状态的协议</t>
   </si>
   <si>
     <t>同行者接收的广播：com.txznet.adapter.recv</t>
@@ -283,13 +290,13 @@
     <t>打开热点</t>
   </si>
   <si>
-    <t>hotpot.open</t>
+    <t>hotspot.open</t>
   </si>
   <si>
     <t>关闭热点</t>
   </si>
   <si>
-    <t>hotpot.close</t>
+    <t>hotspot.close</t>
   </si>
   <si>
     <t>亮度控制</t>
@@ -512,66 +519,6 @@
     <t>txz.speak.error</t>
   </si>
   <si>
-    <t>WIFI状态调整通知</t>
-  </si>
-  <si>
-    <t>wifi.status</t>
-  </si>
-  <si>
-    <t>ture:wifi打开
-false:wifi关闭</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>亮度值调整通知</t>
-  </si>
-  <si>
-    <t>light.status</t>
-  </si>
-  <si>
-    <t>亮度数值调整时发送 
-number:调整后的亮度值</t>
-  </si>
-  <si>
-    <t>音量值调整通知</t>
-  </si>
-  <si>
-    <t>volume.status</t>
-  </si>
-  <si>
-    <t>音量数值调整时发送</t>
-  </si>
-  <si>
-    <t>number:调整后的音量值</t>
-  </si>
-  <si>
-    <t>蓝牙打开</t>
-  </si>
-  <si>
-    <t>bluetooth.status</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>ture:蓝牙打开
-false:蓝牙关闭</t>
-  </si>
-  <si>
-    <t>收音机开始播放</t>
-  </si>
-  <si>
-    <t>radio.play</t>
-  </si>
-  <si>
-    <t>收音机停止播放</t>
-  </si>
-  <si>
-    <t>radio.stop</t>
-  </si>
-  <si>
     <t>语音功能</t>
   </si>
   <si>
@@ -584,6 +531,63 @@
     <t>要切换的音色
 1-标准女声
 ...</t>
+  </si>
+  <si>
+    <t>操作反馈</t>
+  </si>
+  <si>
+    <t>返回操作结果</t>
+  </si>
+  <si>
+    <t>action.feedback</t>
+  </si>
+  <si>
+    <t>aaction</t>
+  </si>
+  <si>
+    <t>处理同行者发送的action
+app.open&amp;close
+wifi.open&amp;close
+hotspot.open&amp;close
+light.up&amp;down
+screen.off&amp;on
+volume.dec&amp;inc&amp;mute
+bluetooth.open&amp;close
+music.play&amp;pouse&amp;pre&amp;next</t>
+  </si>
+  <si>
+    <t>is_success</t>
+  </si>
+  <si>
+    <t>操作成功与否，由此判断是否进行异常播报</t>
+  </si>
+  <si>
+    <t>value_int</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>aaction操作后某个变量的值如：
+当前亮度值，当前声量</t>
+  </si>
+  <si>
+    <t>value_str</t>
+  </si>
+  <si>
+    <t>待扩展</t>
+  </si>
+  <si>
+    <t>err_code</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用于判断异常反馈
+1：屏幕亮度已是最大
+2：屏幕亮度已是最大
+</t>
   </si>
   <si>
     <t>Intent字段1</t>
@@ -2204,9 +2208,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2217,7 +2219,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2469,7 +2473,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2512,20 +2516,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2548,8 +2546,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2557,13 +2564,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,9 +2575,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3009,13 +3007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="27.3796296296296" style="9" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="9" customWidth="1"/>
@@ -3026,81 +3024,100 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:9">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:9">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>45475</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>45484</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:4">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="41">
         <v>45488</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="54" customHeight="1" spans="1:4">
+      <c r="A6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41">
+        <v>45505</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="22.2" spans="2:2">
+      <c r="B7" s="41" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3133,169 +3150,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="59.25" customHeight="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41">
+      <c r="B4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="39">
         <v>1000</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>18</v>
+      <c r="E4" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:6">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="39">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37">
         <v>1010</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="39">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37">
         <v>1020</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>20</v>
+      <c r="E6" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37">
         <v>1030</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>21</v>
+      <c r="E7" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37">
         <v>1040</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>22</v>
+      <c r="E8" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="39">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37">
         <v>1060</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>23</v>
+      <c r="E9" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="39">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37">
         <v>1110</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>24</v>
+      <c r="E10" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37">
         <v>2010</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>25</v>
+      <c r="E11" s="37" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37">
         <v>2020</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37">
+        <v>2030</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37">
+        <v>2040</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="35.1" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39">
-        <v>2030</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
-        <v>2040</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="35.1" customHeight="1" spans="1:5">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39">
-        <v>2400</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3328,8 +3345,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="280.5" customHeight="1" spans="1:1">
-      <c r="A1" s="37" t="s">
-        <v>29</v>
+      <c r="A1" s="35" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3344,1164 +3361,1154 @@
   <sheetPr/>
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H47" sqref="A1:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.8796296296296" style="20" customWidth="1"/>
-    <col min="3" max="3" width="37.8796296296296" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.87962962962963" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="20" customWidth="1"/>
-    <col min="6" max="6" width="8.62962962962963" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.6296296296296" style="20" customWidth="1"/>
-    <col min="8" max="8" width="29.3796296296296" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="14.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" style="18" customWidth="1"/>
+    <col min="3" max="3" width="37.8796296296296" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.87962962962963" style="18" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.62962962962963" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.6296296296296" style="18" customWidth="1"/>
+    <col min="8" max="8" width="29.3796296296296" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20">
         <v>1000</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="F9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="23" t="s">
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="23">
+      <c r="G16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1020</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="17" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20">
         <v>1000</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="H25" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" customHeight="1" spans="1:8">
+      <c r="A26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1030</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" ht="122.1" hidden="1" customHeight="1" spans="1:8">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" customHeight="1" spans="1:8">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" customHeight="1" spans="1:8">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" ht="53.1" customHeight="1" spans="1:8">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="F31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" ht="48.95" customHeight="1" spans="1:8">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="81" customHeight="1" spans="1:8">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="H35" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22">
+      <c r="D37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20">
         <v>1000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="21">
+        <v>1040</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A42" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="E43" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="F43" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1010</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="22" t="s">
+    <row r="44" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A44" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="29">
+        <v>1060</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" s="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="E51" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="F51" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="23">
-        <v>1020</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" s="19" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:8">
-      <c r="A26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="23">
-        <v>1030</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" ht="122.1" hidden="1" customHeight="1" spans="1:8">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:8">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:8">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" ht="53.1" customHeight="1" spans="1:8">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" ht="48.95" customHeight="1" spans="1:8">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" ht="81" customHeight="1" spans="1:8">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22">
-        <v>1000</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="23">
-        <v>1040</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A42" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27">
-        <v>1000</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A44" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="28">
-        <v>1060</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:8">
-      <c r="A50" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="29">
+      <c r="A52" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="24">
         <v>1110</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="60" customHeight="1" spans="1:8">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="30"/>
       <c r="F53" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>108</v>
+        <v>49</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>43</v>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:19">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
     </row>
     <row r="56" customHeight="1" spans="1:19">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
     </row>
     <row r="57" customHeight="1" spans="1:19">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>43</v>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="8"/>
@@ -4513,20 +4520,18 @@
       <c r="S57" s="8"/>
     </row>
     <row r="58" customHeight="1" spans="1:19">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
       <c r="L58" s="7"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -4537,25 +4542,23 @@
       <c r="S58" s="7"/>
     </row>
     <row r="59" customHeight="1" spans="1:19">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="34" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="32" t="s">
         <v>121</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="8"/>
@@ -4567,24 +4570,22 @@
       <c r="S59" s="8"/>
     </row>
     <row r="60" customHeight="1" spans="1:19">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="34"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="33"/>
       <c r="L60" s="7"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
@@ -4595,24 +4596,22 @@
       <c r="S60" s="7"/>
     </row>
     <row r="61" customHeight="1" spans="1:19">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="34"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="33"/>
       <c r="L61" s="7"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -4623,24 +4622,22 @@
       <c r="S61" s="8"/>
     </row>
     <row r="62" customHeight="1" spans="1:19">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="34"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="33"/>
       <c r="L62" s="7"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -4651,44 +4648,42 @@
       <c r="S62" s="7"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="34"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="33"/>
     </row>
     <row r="65" customHeight="1" spans="1:8">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" customHeight="1" spans="1:8">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="7"/>
@@ -4751,7 +4746,7 @@
       <c r="H72" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="86">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="D8:E8"/>
@@ -4824,8 +4819,11 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D56:D63"/>
     <mergeCell ref="H59:H63"/>
     <mergeCell ref="L55:L56"/>
     <mergeCell ref="L57:L62"/>
@@ -4845,60 +4843,62 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H671"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="8" customWidth="1"/>
     <col min="3" max="3" width="37.1296296296296" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.8796296296296" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1"/>
     <col min="5" max="5" width="23.1296296296296" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.37962962962963" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.1296296296296" style="8" customWidth="1"/>
+    <col min="8" max="8" width="51.1018518518519" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.95" customHeight="1" spans="1:8">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
     <row r="2" ht="27.95" customHeight="1" spans="1:8">
       <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11">
+        <v>1000</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -4906,442 +4906,234 @@
     </row>
     <row r="3" ht="27.95" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B3" s="13">
-        <v>2010</v>
+        <v>2400</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" ht="27.95" customHeight="1" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="60.95" customHeight="1" spans="1:8">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" ht="27.95" customHeight="1"/>
+    <row r="6" ht="27.95" customHeight="1" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
+      <c r="A8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="218" customHeight="1" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>136</v>
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="13" t="s">
-        <v>63</v>
+      <c r="D10" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" ht="27.95" customHeight="1"/>
-    <row r="12" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2030</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" ht="48" customHeight="1" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
+      <c r="F12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" ht="74" customHeight="1" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="27.95" customHeight="1"/>
+    <row r="15" ht="27.95" customHeight="1"/>
     <row r="16" ht="27.95" customHeight="1"/>
-    <row r="17" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="14">
-        <v>2040</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="17" ht="27.95" customHeight="1"/>
+    <row r="18" ht="27.95" customHeight="1"/>
+    <row r="19" ht="27.95" customHeight="1"/>
+    <row r="20" ht="27.95" customHeight="1"/>
     <row r="21" ht="27.95" customHeight="1"/>
-    <row r="22" ht="27.95" hidden="1" customHeight="1" spans="1:8">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" ht="27.95" hidden="1" customHeight="1" spans="1:8">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="22" ht="27.95" customHeight="1"/>
+    <row r="23" ht="27.95" customHeight="1"/>
     <row r="24" ht="27.95" customHeight="1"/>
-    <row r="25" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="27.95" customHeight="1" spans="1:8">
-      <c r="A27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="13">
-        <v>2400</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" ht="60.95" customHeight="1" spans="1:8">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
+    <row r="25" ht="27.95" customHeight="1"/>
+    <row r="26" ht="27.95" customHeight="1"/>
+    <row r="27" ht="27.95" customHeight="1"/>
+    <row r="28" ht="27.95" customHeight="1"/>
     <row r="29" ht="27.95" customHeight="1"/>
     <row r="30" ht="27.95" customHeight="1"/>
     <row r="31" ht="27.95" customHeight="1"/>
@@ -5963,75 +5755,24 @@
     <row r="647" ht="27.95" customHeight="1"/>
     <row r="648" ht="27.95" customHeight="1"/>
     <row r="649" ht="27.95" customHeight="1"/>
-    <row r="650" ht="27.95" customHeight="1"/>
-    <row r="651" ht="27.95" customHeight="1"/>
-    <row r="652" ht="27.95" customHeight="1"/>
-    <row r="653" ht="27.95" customHeight="1"/>
-    <row r="654" ht="27.95" customHeight="1"/>
-    <row r="655" ht="27.95" customHeight="1"/>
-    <row r="656" ht="27.95" customHeight="1"/>
-    <row r="657" ht="27.95" customHeight="1"/>
-    <row r="658" ht="27.95" customHeight="1"/>
-    <row r="659" ht="27.95" customHeight="1"/>
-    <row r="660" ht="27.95" customHeight="1"/>
-    <row r="661" ht="27.95" customHeight="1"/>
-    <row r="662" ht="27.95" customHeight="1"/>
-    <row r="663" ht="27.95" customHeight="1"/>
-    <row r="664" ht="27.95" customHeight="1"/>
-    <row r="665" ht="27.95" customHeight="1"/>
-    <row r="666" ht="27.95" customHeight="1"/>
-    <row r="667" ht="27.95" customHeight="1"/>
-    <row r="668" ht="27.95" customHeight="1"/>
-    <row r="669" ht="27.95" customHeight="1"/>
-    <row r="670" ht="27.95" customHeight="1"/>
-    <row r="671" ht="27.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="16">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6061,20 +5802,20 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -6085,77 +5826,77 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1"/>
     <row r="6" ht="30" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -6166,77 +5907,77 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1010</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1"/>
     <row r="11" ht="30" customHeight="1" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -6247,115 +5988,115 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1">
         <v>1020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1"/>
     <row r="18" ht="30" customHeight="1" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -6366,115 +6107,115 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>1030</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1"/>
     <row r="25" ht="30" customHeight="1" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -6485,172 +6226,172 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>1040</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="3:7">
@@ -6662,20 +6403,20 @@
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -6686,115 +6427,115 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38" s="1">
         <v>1050</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1"/>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -6805,248 +6546,248 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
         <v>1060</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:7">
@@ -7054,16 +6795,16 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:7">
@@ -7071,73 +6812,73 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1"/>
     <row r="62" ht="30" customHeight="1" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -7148,77 +6889,77 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B64" s="1">
         <v>1070</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1"/>
     <row r="67" ht="30" customHeight="1" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -7229,419 +6970,419 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B69" s="1">
         <v>1080</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1"/>
     <row r="90" ht="30" customHeight="1" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -7652,39 +7393,39 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B92" s="1">
         <v>1100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1" spans="3:7">
@@ -8373,20 +8114,20 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -8397,208 +8138,208 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1">
         <v>2000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="3:7">
       <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="3:7">
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="27.95" customHeight="1" spans="3:7">
       <c r="C6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" ht="27.95" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" ht="27.95" customHeight="1" spans="3:7">
       <c r="C8" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" ht="27.95" customHeight="1" spans="3:7">
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1" spans="3:7">
       <c r="C10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" ht="27.95" customHeight="1" spans="4:5">
       <c r="D11" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" ht="27.95" customHeight="1" spans="5:5">
       <c r="E12" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" ht="27.95" customHeight="1" spans="5:5">
       <c r="E13" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" ht="27.95" customHeight="1" spans="5:5">
       <c r="E14" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" ht="27.95" customHeight="1" spans="5:5">
       <c r="E15" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" ht="27.95" customHeight="1" spans="3:7">
       <c r="C16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" ht="27.95" customHeight="1" spans="7:7">
       <c r="G17" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1" spans="7:7">
       <c r="G18" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="7:7">
@@ -8606,20 +8347,20 @@
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -8630,177 +8371,177 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="3:7">
       <c r="C23" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C25" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C26" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C28" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" customHeight="1" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="31" ht="30" customHeight="1" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -8811,72 +8552,72 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B33" s="1">
         <v>2020</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="3:7">
       <c r="C34" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1"/>
     <row r="36" ht="30" customHeight="1" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -8887,72 +8628,72 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1">
         <v>2030</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="3:7">
       <c r="C39" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1"/>
     <row r="41" ht="30" customHeight="1" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -8963,205 +8704,205 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B43" s="1">
         <v>2030</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="3:7">
       <c r="C44" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="3:7">
       <c r="C45" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="3:7">
       <c r="C46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="4:7">
       <c r="D47" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="3:7">
       <c r="C48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="4:7">
       <c r="D49" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="3:7">
       <c r="C50" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="3:7">
       <c r="C51" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="3:7">
       <c r="C52" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1"/>
     <row r="54" ht="30" customHeight="1" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -9172,75 +8913,75 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B56" s="1">
         <v>2080</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="3:7">
       <c r="C57" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1"/>
     <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -9251,39 +8992,39 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B61" s="1">
         <v>2100</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="7:7">
